--- a/va_facility_data_2025-02-20/Merril Lundman Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Merril%20Lundman%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Merril Lundman Department of Veterans Affairs Outpatient Clinic - Facility Data.xlsx"; filename*=UTF-8''Merril%20Lundman%20Department%20of%20Veterans%20Affairs%20Outpatient%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8d5cdbd6eff4474f9580a528197203ff"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb45b062f42884bddb487444157b91ca1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R31a4a837ff0a436691793137f57c67ae"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rb53e2e430b8e42488306ea7d30bb036b"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd03a8122f6a3452e86b02e4d71d323b3"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2fc7be89abde42f3bad9cfcabae540b2"/>
   </x:sheets>
 </x:workbook>
 </file>
